--- a/yhdzfpTestNew/Config/51新后台接口用例.xlsx
+++ b/yhdzfpTestNew/Config/51新后台接口用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,12 +88,12 @@
   </si>
   <si>
     <t>{
-"nsrsbh":nsrsbh,
-"nsrmc":nsrmc,
-"blrmc":blrmc,
-"blrsj":blrsj,
-"blryx":blryx,
-"blrzj":blrzj
+"nsrsbh":"nsrsbh",
+"nsrmc":"nsrmc",
+"blrmc":"blrmc",
+"blrsj":"blrsj",
+"blryx":"blryx",
+"blrzj":"blrzj"
 }</t>
   </si>
   <si>
@@ -113,8 +113,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -132,15 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,8 +155,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,17 +195,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,58 +233,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,181 +284,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,39 +469,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,17 +491,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -569,16 +525,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,11 +1058,11 @@
   <sheetPr/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="32.125" style="3" customWidth="1"/>
@@ -1187,9 +1187,6 @@
     <row r="29" ht="165" customHeight="1"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
-      <formula1>"正用例,反用例"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
       <formula1>"yes,no"</formula1>
     </dataValidation>
@@ -1198,6 +1195,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"通过,失败"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576">
+      <formula1>"正用例,反用例"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1215,7 +1215,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/yhdzfpTestNew/Config/51新后台接口用例.xlsx
+++ b/yhdzfpTestNew/Config/51新后台接口用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480"/>
+    <workbookView windowWidth="22995" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -71,7 +71,7 @@
     <t>/dzfpht/enterprise/addEnterprise</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>post</t>
   </si>
   <si>
     <t>所有参数填写正确</t>
@@ -88,12 +88,12 @@
   </si>
   <si>
     <t>{
-"nsrsbh":"nsrsbh",
-"nsrmc":"nsrmc",
-"blrmc":"blrmc",
-"blrsj":"blrsj",
-"blryx":"blryx",
-"blrzj":"blrzj"
+ "nsrsbh": "nsrsbh",
+ "nsrmc": "nsrmc",
+ "blrmc": "blrmc",
+ "blrsj": "blrsj",
+ "blryx": "blryx",
+ "blrzj": "blrzj"
 }</t>
   </si>
   <si>
@@ -103,7 +103,59 @@
     <t>Nobita</t>
   </si>
   <si>
+    <t>正用例</t>
+  </si>
+  <si>
     <t>2019.10.29</t>
+  </si>
+  <si>
+    <t>企业管理-修改</t>
+  </si>
+  <si>
+    <t>/dzfpht/enterprise/updateEnterprise</t>
+  </si>
+  <si>
+    <t>{
+"nsrsbh":"纳税人识别号",
+"nsrmc":"纳税人名称",
+"blrmc":"办理人名称",
+"blrsj":"办理人手机号码",
+"blrzjhm":"办理人证件号码",
+"blryx":"办理人邮箱"，
+"zczt":"注册状态",
+"kpzt":"开票状态",
+"dsptbm":"电商平台编码",
+"zcm":"注册码",
+"yydz":"营业地址",
+"hylx":"行业类型",
+"ykp":"预开票",
+"crm_depno":"部门",
+"qz_type":"签章类型",
+"swjg_dm":"税务机关代码"
+}</t>
+  </si>
+  <si>
+    <t>{
+ "nsrsbh": "nsrsbh",
+ "nsrmc": "nsrmc",
+ "blrmc": "blrmc",
+ "blrsj": "blrsj",
+ "blrzjhm": "blrzj",
+ "blryx": "blryx",
+ "zczt": "0",
+ "kpzt": "0",
+ "dsptbm": "",
+ "zcm": "",
+ "yydz": "浙江宁波",
+ "hylx": "123",
+ "ykp": "",
+ "crm_depno": "31637",
+ "qz_type": "0",
+ "swjg_dm": ""
+}</t>
+  </si>
+  <si>
+    <t>2019.10.31</t>
   </si>
 </sst>
 </file>
@@ -1058,8 +1110,8 @@
   <sheetPr/>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1154,11 +1206,51 @@
       <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="165" customHeight="1" spans="1:14">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" ht="165" customHeight="1"/>
     <row r="4" ht="165" customHeight="1"/>
     <row r="5" ht="165" customHeight="1"/>
     <row r="6" ht="165" customHeight="1"/>
@@ -1191,7 +1283,7 @@
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>"POST,GET,PUT,DELETE"</formula1>
+      <formula1>"post,get"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K1048576">
       <formula1>"通过,失败"</formula1>
